--- a/Haiyan/scripts/workbook3.water.xlsx
+++ b/Haiyan/scripts/workbook3.water.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,6 +389,2356 @@
         <is>
           <t>Water(nL)</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>656.2879</v>
+      </c>
+      <c r="C2" t="n">
+        <v>833.7062</v>
+      </c>
+      <c r="D2" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2246.7384</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1408.5947</v>
+      </c>
+      <c r="C3" t="n">
+        <v>784.7023</v>
+      </c>
+      <c r="D3" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1543.4355</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1136.8489</v>
+      </c>
+      <c r="C4" t="n">
+        <v>653.398</v>
+      </c>
+      <c r="D4" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1946.4856</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1058.4167</v>
+      </c>
+      <c r="C5" t="n">
+        <v>632.5309999999999</v>
+      </c>
+      <c r="D5" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2045.7848</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>E1</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1109.5351</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1058.4167</v>
+      </c>
+      <c r="D6" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E6" t="n">
+        <v>100</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1568.7807</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>F1</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>808.3179</v>
+      </c>
+      <c r="C7" t="n">
+        <v>670.4833</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E7" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2257.9313</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>764.5526</v>
+      </c>
+      <c r="C8" t="n">
+        <v>724.5282999999999</v>
+      </c>
+      <c r="D8" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E8" t="n">
+        <v>100</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2247.6516</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1293.2724</v>
+      </c>
+      <c r="C9" t="n">
+        <v>628.5777</v>
+      </c>
+      <c r="D9" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1814.8824</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>710.3696</v>
+      </c>
+      <c r="C10" t="n">
+        <v>28298.3475</v>
+      </c>
+      <c r="D10" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E10" t="n">
+        <v>100</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1868.36625</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1007.073</v>
+      </c>
+      <c r="C11" t="n">
+        <v>613.2464</v>
+      </c>
+      <c r="D11" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E11" t="n">
+        <v>100</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2116.4131</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1406.8433</v>
+      </c>
+      <c r="C12" t="n">
+        <v>759.612</v>
+      </c>
+      <c r="D12" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E12" t="n">
+        <v>100</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1570.2772</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1167.3453</v>
+      </c>
+      <c r="C13" t="n">
+        <v>588.9844000000001</v>
+      </c>
+      <c r="D13" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E13" t="n">
+        <v>100</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1980.4028</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1048.6073</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1167.3453</v>
+      </c>
+      <c r="D14" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E14" t="n">
+        <v>100</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1520.7799</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>F2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>869.9234</v>
+      </c>
+      <c r="C15" t="n">
+        <v>547.9452</v>
+      </c>
+      <c r="D15" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E15" t="n">
+        <v>100</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2318.8639</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>968.8073000000001</v>
+      </c>
+      <c r="C16" t="n">
+        <v>715.6492</v>
+      </c>
+      <c r="D16" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E16" t="n">
+        <v>100</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2052.276</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1053.4892</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1129.0495</v>
+      </c>
+      <c r="D17" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E17" t="n">
+        <v>100</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1554.1938</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>900.4733</v>
+      </c>
+      <c r="C18" t="n">
+        <v>771.4598999999999</v>
+      </c>
+      <c r="D18" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E18" t="n">
+        <v>100</v>
+      </c>
+      <c r="F18" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2064.7993</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>967.2544</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1008.1948</v>
+      </c>
+      <c r="D19" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E19" t="n">
+        <v>100</v>
+      </c>
+      <c r="F19" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1761.2833</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1318.9009</v>
+      </c>
+      <c r="C20" t="n">
+        <v>800.5964</v>
+      </c>
+      <c r="D20" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E20" t="n">
+        <v>100</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1617.2352</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>923.1576</v>
+      </c>
+      <c r="C21" t="n">
+        <v>650.5801</v>
+      </c>
+      <c r="D21" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E21" t="n">
+        <v>100</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2162.9948</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>830.1125</v>
+      </c>
+      <c r="C22" t="n">
+        <v>923.1576</v>
+      </c>
+      <c r="D22" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E22" t="n">
+        <v>100</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1983.4624</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>F3</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>773.0412</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1435.6279</v>
+      </c>
+      <c r="D23" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E23" t="n">
+        <v>100</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1528.0634</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>995.9915</v>
+      </c>
+      <c r="C24" t="n">
+        <v>761.3371</v>
+      </c>
+      <c r="D24" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E24" t="n">
+        <v>100</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1979.4039</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>959.5638</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1050.4327</v>
+      </c>
+      <c r="D25" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E25" t="n">
+        <v>100</v>
+      </c>
+      <c r="F25" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1726.736</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1458.0601</v>
+      </c>
+      <c r="C26" t="n">
+        <v>693.9227</v>
+      </c>
+      <c r="D26" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E26" t="n">
+        <v>100</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1584.7497</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>899.8466</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1519.7525</v>
+      </c>
+      <c r="D27" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E27" t="n">
+        <v>100</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1317.1334</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1107.9054</v>
+      </c>
+      <c r="C28" t="n">
+        <v>935.9489</v>
+      </c>
+      <c r="D28" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E28" t="n">
+        <v>100</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1692.8782</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1282.4613</v>
+      </c>
+      <c r="C29" t="n">
+        <v>710.8159000000001</v>
+      </c>
+      <c r="D29" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E29" t="n">
+        <v>100</v>
+      </c>
+      <c r="F29" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1743.4553</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>E4</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1008.0825</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1282.4613</v>
+      </c>
+      <c r="D30" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E30" t="n">
+        <v>100</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1446.1887</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1121.9124</v>
+      </c>
+      <c r="C31" t="n">
+        <v>909.5216</v>
+      </c>
+      <c r="D31" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E31" t="n">
+        <v>100</v>
+      </c>
+      <c r="F31" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1705.2985</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>711.7662</v>
+      </c>
+      <c r="C32" t="n">
+        <v>661.226</v>
+      </c>
+      <c r="D32" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E32" t="n">
+        <v>100</v>
+      </c>
+      <c r="F32" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2363.7403</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>H4</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>882.3038</v>
+      </c>
+      <c r="C33" t="n">
+        <v>767.9906999999999</v>
+      </c>
+      <c r="D33" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E33" t="n">
+        <v>100</v>
+      </c>
+      <c r="F33" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2086.438</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>979.289</v>
+      </c>
+      <c r="C34" t="n">
+        <v>825.871</v>
+      </c>
+      <c r="D34" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E34" t="n">
+        <v>100</v>
+      </c>
+      <c r="F34" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1931.5725</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>B5</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>754.6091</v>
+      </c>
+      <c r="C35" t="n">
+        <v>848.2382</v>
+      </c>
+      <c r="D35" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E35" t="n">
+        <v>100</v>
+      </c>
+      <c r="F35" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2133.8852</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>C5</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1237.911</v>
+      </c>
+      <c r="C36" t="n">
+        <v>817.3691</v>
+      </c>
+      <c r="D36" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E36" t="n">
+        <v>100</v>
+      </c>
+      <c r="F36" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1681.4524</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>871.1793</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1046.0624</v>
+      </c>
+      <c r="D37" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E37" t="n">
+        <v>100</v>
+      </c>
+      <c r="F37" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1819.4908</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>E5</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>948.1056</v>
+      </c>
+      <c r="C38" t="n">
+        <v>871.1793</v>
+      </c>
+      <c r="D38" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E38" t="n">
+        <v>100</v>
+      </c>
+      <c r="F38" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1917.4476</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>F5</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1013.3871</v>
+      </c>
+      <c r="C39" t="n">
+        <v>813.7683</v>
+      </c>
+      <c r="D39" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E39" t="n">
+        <v>100</v>
+      </c>
+      <c r="F39" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1909.5771</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>G5</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>868.0879</v>
+      </c>
+      <c r="C40" t="n">
+        <v>815.822</v>
+      </c>
+      <c r="D40" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E40" t="n">
+        <v>100</v>
+      </c>
+      <c r="F40" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2052.8226</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1450.1179</v>
+      </c>
+      <c r="C41" t="n">
+        <v>855.2107999999999</v>
+      </c>
+      <c r="D41" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E41" t="n">
+        <v>100</v>
+      </c>
+      <c r="F41" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1431.4038</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>A6</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>2895.6629</v>
+      </c>
+      <c r="C42" t="n">
+        <v>815.6015</v>
+      </c>
+      <c r="D42" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E42" t="n">
+        <v>100</v>
+      </c>
+      <c r="F42" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G42" t="n">
+        <v>25.46810000000005</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1589.1249</v>
+      </c>
+      <c r="C43" t="n">
+        <v>761.8498</v>
+      </c>
+      <c r="D43" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E43" t="n">
+        <v>100</v>
+      </c>
+      <c r="F43" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1385.7578</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>C6</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1007.7458</v>
+      </c>
+      <c r="C44" t="n">
+        <v>963.8554</v>
+      </c>
+      <c r="D44" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E44" t="n">
+        <v>100</v>
+      </c>
+      <c r="F44" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1765.1313</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>D6</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1283.1885</v>
+      </c>
+      <c r="C45" t="n">
+        <v>708.9231</v>
+      </c>
+      <c r="D45" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E45" t="n">
+        <v>100</v>
+      </c>
+      <c r="F45" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1744.6209</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>E6</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1020.4706</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1283.1885</v>
+      </c>
+      <c r="D46" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E46" t="n">
+        <v>100</v>
+      </c>
+      <c r="F46" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1433.0734</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>F6</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>968.9109999999999</v>
+      </c>
+      <c r="C47" t="n">
+        <v>569.2415999999999</v>
+      </c>
+      <c r="D47" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E47" t="n">
+        <v>100</v>
+      </c>
+      <c r="F47" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2198.5799</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>G6</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1183.9892</v>
+      </c>
+      <c r="C48" t="n">
+        <v>769.9505</v>
+      </c>
+      <c r="D48" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E48" t="n">
+        <v>100</v>
+      </c>
+      <c r="F48" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1782.7928</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>2122.8264</v>
+      </c>
+      <c r="C49" t="n">
+        <v>737.5761</v>
+      </c>
+      <c r="D49" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E49" t="n">
+        <v>100</v>
+      </c>
+      <c r="F49" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G49" t="n">
+        <v>876.3299999999999</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>A7</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>2095.7925</v>
+      </c>
+      <c r="C50" t="n">
+        <v>846.3347</v>
+      </c>
+      <c r="D50" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E50" t="n">
+        <v>100</v>
+      </c>
+      <c r="F50" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G50" t="n">
+        <v>794.6053000000002</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>737.7565</v>
+      </c>
+      <c r="C51" t="n">
+        <v>845.0703999999999</v>
+      </c>
+      <c r="D51" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E51" t="n">
+        <v>100</v>
+      </c>
+      <c r="F51" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2153.9056</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>C7</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1340.7821</v>
+      </c>
+      <c r="C52" t="n">
+        <v>862.7921</v>
+      </c>
+      <c r="D52" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E52" t="n">
+        <v>100</v>
+      </c>
+      <c r="F52" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1533.1583</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1051.2867</v>
+      </c>
+      <c r="C53" t="n">
+        <v>609.4066</v>
+      </c>
+      <c r="D53" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E53" t="n">
+        <v>100</v>
+      </c>
+      <c r="F53" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2076.0392</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>E7</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>949.5976000000001</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1051.2867</v>
+      </c>
+      <c r="D54" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E54" t="n">
+        <v>100</v>
+      </c>
+      <c r="F54" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1735.8482</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>F7</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1641.5784</v>
+      </c>
+      <c r="C55" t="n">
+        <v>641.0425</v>
+      </c>
+      <c r="D55" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E55" t="n">
+        <v>100</v>
+      </c>
+      <c r="F55" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1454.1116</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>G7</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1278.6568</v>
+      </c>
+      <c r="C56" t="n">
+        <v>799.7476</v>
+      </c>
+      <c r="D56" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E56" t="n">
+        <v>100</v>
+      </c>
+      <c r="F56" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1658.3281</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1218.0867</v>
+      </c>
+      <c r="C57" t="n">
+        <v>738.3583</v>
+      </c>
+      <c r="D57" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E57" t="n">
+        <v>100</v>
+      </c>
+      <c r="F57" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1780.2875</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>A8</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2938.9118</v>
+      </c>
+      <c r="C58" t="n">
+        <v>848.7154</v>
+      </c>
+      <c r="D58" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E58" t="n">
+        <v>100</v>
+      </c>
+      <c r="F58" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1868.36625</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>B8</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1698.5684</v>
+      </c>
+      <c r="C59" t="n">
+        <v>736.6156999999999</v>
+      </c>
+      <c r="D59" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E59" t="n">
+        <v>100</v>
+      </c>
+      <c r="F59" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1301.5484</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>C8</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1189.2785</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1024.0497</v>
+      </c>
+      <c r="D60" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E60" t="n">
+        <v>100</v>
+      </c>
+      <c r="F60" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1523.4043</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>D8</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1755.9029</v>
+      </c>
+      <c r="C61" t="n">
+        <v>661.7094</v>
+      </c>
+      <c r="D61" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E61" t="n">
+        <v>100</v>
+      </c>
+      <c r="F61" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1319.1202</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>E8</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>998.6288</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1755.9029</v>
+      </c>
+      <c r="D62" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E62" t="n">
+        <v>100</v>
+      </c>
+      <c r="F62" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G62" t="n">
+        <v>982.2008000000001</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>F8</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1784.2861</v>
+      </c>
+      <c r="C63" t="n">
+        <v>931.039</v>
+      </c>
+      <c r="D63" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E63" t="n">
+        <v>100</v>
+      </c>
+      <c r="F63" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1021.4074</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>G8</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1635.35</v>
+      </c>
+      <c r="C64" t="n">
+        <v>660.0205999999999</v>
+      </c>
+      <c r="D64" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E64" t="n">
+        <v>100</v>
+      </c>
+      <c r="F64" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1441.3619</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>H8</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>2312.0712</v>
+      </c>
+      <c r="C65" t="n">
+        <v>647.4159</v>
+      </c>
+      <c r="D65" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E65" t="n">
+        <v>100</v>
+      </c>
+      <c r="F65" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G65" t="n">
+        <v>777.2454000000002</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>A9</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1760</v>
+      </c>
+      <c r="C66" t="n">
+        <v>798.689</v>
+      </c>
+      <c r="D66" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E66" t="n">
+        <v>100</v>
+      </c>
+      <c r="F66" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1178.0435</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>B9</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1068.7899</v>
+      </c>
+      <c r="C67" t="n">
+        <v>768.6429000000001</v>
+      </c>
+      <c r="D67" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E67" t="n">
+        <v>100</v>
+      </c>
+      <c r="F67" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1899.2997</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>C9</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1354.0197</v>
+      </c>
+      <c r="C68" t="n">
+        <v>770.9342</v>
+      </c>
+      <c r="D68" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E68" t="n">
+        <v>100</v>
+      </c>
+      <c r="F68" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1611.7786</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1060.2764</v>
+      </c>
+      <c r="C69" t="n">
+        <v>632.8406</v>
+      </c>
+      <c r="D69" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E69" t="n">
+        <v>100</v>
+      </c>
+      <c r="F69" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G69" t="n">
+        <v>2043.6155</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>E9</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1141.4365</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1060.2764</v>
+      </c>
+      <c r="D70" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E70" t="n">
+        <v>100</v>
+      </c>
+      <c r="F70" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1535.0196</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>F9</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1160.4608</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1290.5065</v>
+      </c>
+      <c r="D71" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E71" t="n">
+        <v>100</v>
+      </c>
+      <c r="F71" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1285.7652</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>G9</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1367.3148</v>
+      </c>
+      <c r="C72" t="n">
+        <v>661.4193</v>
+      </c>
+      <c r="D72" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E72" t="n">
+        <v>100</v>
+      </c>
+      <c r="F72" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1707.9984</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>H9</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1015.4334</v>
+      </c>
+      <c r="C73" t="n">
+        <v>807.5967000000001</v>
+      </c>
+      <c r="D73" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E73" t="n">
+        <v>100</v>
+      </c>
+      <c r="F73" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1913.7024</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>A10</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1256.121</v>
+      </c>
+      <c r="C74" t="n">
+        <v>712.8312</v>
+      </c>
+      <c r="D74" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E74" t="n">
+        <v>100</v>
+      </c>
+      <c r="F74" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1767.7803</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>B10</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1303.516</v>
+      </c>
+      <c r="C75" t="n">
+        <v>682.8764</v>
+      </c>
+      <c r="D75" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E75" t="n">
+        <v>100</v>
+      </c>
+      <c r="F75" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1750.3401</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>C10</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1848.7934</v>
+      </c>
+      <c r="C76" t="n">
+        <v>933.5357</v>
+      </c>
+      <c r="D76" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E76" t="n">
+        <v>100</v>
+      </c>
+      <c r="F76" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G76" t="n">
+        <v>954.4034000000001</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>D10</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>1067.1517</v>
+      </c>
+      <c r="C77" t="n">
+        <v>990.6501</v>
+      </c>
+      <c r="D77" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E77" t="n">
+        <v>100</v>
+      </c>
+      <c r="F77" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1678.9307</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>E10</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>771.197</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1067.1517</v>
+      </c>
+      <c r="D78" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E78" t="n">
+        <v>100</v>
+      </c>
+      <c r="F78" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1898.3838</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>F10</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>993.5862</v>
+      </c>
+      <c r="C79" t="n">
+        <v>869.9234</v>
+      </c>
+      <c r="D79" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E79" t="n">
+        <v>100</v>
+      </c>
+      <c r="F79" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1873.2229</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>G10</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>933.0545</v>
+      </c>
+      <c r="C80" t="n">
+        <v>809.9816</v>
+      </c>
+      <c r="D80" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E80" t="n">
+        <v>100</v>
+      </c>
+      <c r="F80" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1993.6964</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>H10</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1283.7345</v>
+      </c>
+      <c r="C81" t="n">
+        <v>703.9061</v>
+      </c>
+      <c r="D81" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E81" t="n">
+        <v>100</v>
+      </c>
+      <c r="F81" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1749.0919</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>A11</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>32812.0145</v>
+      </c>
+      <c r="C82" t="n">
+        <v>667.2705</v>
+      </c>
+      <c r="D82" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E82" t="n">
+        <v>100</v>
+      </c>
+      <c r="F82" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1868.36625</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>B11</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1004.391</v>
+      </c>
+      <c r="C83" t="n">
+        <v>806.5892</v>
+      </c>
+      <c r="D83" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E83" t="n">
+        <v>100</v>
+      </c>
+      <c r="F83" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1925.7523</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>C11</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>2277.1708</v>
+      </c>
+      <c r="C84" t="n">
+        <v>786.0652</v>
+      </c>
+      <c r="D84" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E84" t="n">
+        <v>100</v>
+      </c>
+      <c r="F84" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G84" t="n">
+        <v>673.4965000000002</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>D11</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1154.6873</v>
+      </c>
+      <c r="C85" t="n">
+        <v>935.9489</v>
+      </c>
+      <c r="D85" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E85" t="n">
+        <v>100</v>
+      </c>
+      <c r="F85" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1646.0963</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>E11</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>1327.2167</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1154.6873</v>
+      </c>
+      <c r="D86" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E86" t="n">
+        <v>100</v>
+      </c>
+      <c r="F86" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1254.8285</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>F11</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1640.9831</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1350.7867</v>
+      </c>
+      <c r="D87" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E87" t="n">
+        <v>100</v>
+      </c>
+      <c r="F87" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G87" t="n">
+        <v>744.9627</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>G11</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>929.7002</v>
+      </c>
+      <c r="C88" t="n">
+        <v>745.289</v>
+      </c>
+      <c r="D88" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E88" t="n">
+        <v>100</v>
+      </c>
+      <c r="F88" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G88" t="n">
+        <v>2061.7433</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>H11</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1965.1996</v>
+      </c>
+      <c r="C89" t="n">
+        <v>609.4886</v>
+      </c>
+      <c r="D89" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E89" t="n">
+        <v>100</v>
+      </c>
+      <c r="F89" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1162.0443</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>A12</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1283.3705</v>
+      </c>
+      <c r="C90" t="n">
+        <v>703.6325000000001</v>
+      </c>
+      <c r="D90" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E90" t="n">
+        <v>100</v>
+      </c>
+      <c r="F90" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1749.7295</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>B12</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1659.638</v>
+      </c>
+      <c r="C91" t="n">
+        <v>772.5793</v>
+      </c>
+      <c r="D91" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E91" t="n">
+        <v>100</v>
+      </c>
+      <c r="F91" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1304.5152</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>C12</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1267.5549</v>
+      </c>
+      <c r="C92" t="n">
+        <v>671.8768</v>
+      </c>
+      <c r="D92" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E92" t="n">
+        <v>100</v>
+      </c>
+      <c r="F92" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1797.3008</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>D12</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>1932.0607</v>
+      </c>
+      <c r="C93" t="n">
+        <v>681.0779</v>
+      </c>
+      <c r="D93" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E93" t="n">
+        <v>100</v>
+      </c>
+      <c r="F93" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1123.5939</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>E12</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>1595.8492</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1932.0607</v>
+      </c>
+      <c r="D94" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E94" t="n">
+        <v>100</v>
+      </c>
+      <c r="F94" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G94" t="n">
+        <v>208.8226</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>F12</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>976.0155</v>
+      </c>
+      <c r="C95" t="n">
+        <v>730.1979</v>
+      </c>
+      <c r="D95" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E95" t="n">
+        <v>100</v>
+      </c>
+      <c r="F95" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G95" t="n">
+        <v>2030.5191</v>
       </c>
     </row>
   </sheetData>
